--- a/Data/Final_Output/Stats_Shooting_Final.xlsx
+++ b/Data/Final_Output/Stats_Shooting_Final.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Detailed Stats Category</t>
   </si>
   <si>
-    <t>redbull njr</t>
+    <t>HOME</t>
   </si>
   <si>
     <t>Alexander Hleb</t>
@@ -63,15 +63,15 @@
     <t>assists</t>
   </si>
   <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
     <t>ST</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>CAM</t>
   </si>
   <si>
@@ -99,39 +99,42 @@
     <t>Hleb</t>
   </si>
   <si>
-    <t>B. Charlton</t>
-  </si>
-  <si>
-    <t>N. Ono</t>
-  </si>
-  <si>
-    <t>A. Banks</t>
-  </si>
-  <si>
-    <t>O. Gillet</t>
-  </si>
-  <si>
-    <t>C. Bernard</t>
-  </si>
-  <si>
-    <t>s. karl</t>
-  </si>
-  <si>
-    <t>I. Lanzini</t>
-  </si>
-  <si>
-    <t>P. Hansen</t>
-  </si>
-  <si>
-    <t>S. Ribeiro</t>
-  </si>
-  <si>
-    <t>M. Lund</t>
+    <t>Z. Shen</t>
+  </si>
+  <si>
+    <t>A. Ji</t>
+  </si>
+  <si>
+    <t>E. Chang</t>
+  </si>
+  <si>
+    <t>T. Morel</t>
+  </si>
+  <si>
+    <t>K. Kowalczyk</t>
+  </si>
+  <si>
+    <t>E. Monteiro</t>
+  </si>
+  <si>
+    <t>C. Hassan</t>
+  </si>
+  <si>
+    <t>O. John</t>
+  </si>
+  <si>
+    <t>Y. Clerc</t>
+  </si>
+  <si>
+    <t>J. Al Shahrani</t>
   </si>
   <si>
     <t>Stat</t>
   </si>
   <si>
+    <t>Shooting Rating</t>
+  </si>
+  <si>
     <t>Goals Excluding Penalties</t>
   </si>
   <si>
@@ -159,7 +162,7 @@
     <t>Penalty Kick Goals</t>
   </si>
   <si>
-    <t>Shoot-out Goals</t>
+    <t>Shootout Goals</t>
   </si>
   <si>
     <t>Assists from Shots</t>
@@ -576,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -650,13 +653,13 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -667,10 +670,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -687,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -701,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -735,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -752,7 +755,7 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -769,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -786,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -803,7 +806,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -819,7 +822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -838,7 +841,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -846,7 +849,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -854,7 +857,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -862,7 +865,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -870,7 +873,7 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -878,7 +881,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -886,7 +889,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -894,7 +897,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -926,7 +929,7 @@
         <v>49</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -934,7 +937,7 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -942,7 +945,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -974,6 +977,14 @@
         <v>55</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
